--- a/CodeSystem-oct-binary-biomarker.xlsx
+++ b/CodeSystem-oct-binary-biomarker.xlsx
@@ -150,7 +150,7 @@
     <t>Disorganization of Retinal Inner Layers</t>
   </si>
   <si>
-    <t>HIF</t>
+    <t>HRF</t>
   </si>
   <si>
     <t>Hyperreflective Foci</t>
